--- a/Properties/The_Club_at_Millenia/TheClubAtMillenia_WasteAnalysis_Validated.xlsx
+++ b/Properties/The_Club_at_Millenia/TheClubAtMillenia_WasteAnalysis_Validated.xlsx
@@ -13,6 +13,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="QUALITY_CHECK" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DOCUMENTATION_NOTES" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CONTRACT_TERMS" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="REGULATORY_COMPLIANCE" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -25,7 +26,7 @@
     <numFmt numFmtId="164" formatCode="$#,##0.00"/>
     <numFmt numFmtId="165" formatCode="$0.00"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -65,8 +66,17 @@
       <b val="1"/>
       <color rgb="00006100"/>
     </font>
+    <font>
+      <b val="1"/>
+      <color rgb="001E3A8A"/>
+      <sz val="14"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <color rgb="0022C55E"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill/>
     </fill>
@@ -91,6 +101,18 @@
         <bgColor rgb="00C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D1FAE5"/>
+        <bgColor rgb="00D1FAE5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00DBEAFE"/>
+        <bgColor rgb="00DBEAFE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -110,7 +132,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -126,6 +148,12 @@
     <xf numFmtId="165" fontId="6" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -3060,4 +3088,253 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="30" customWidth="1" min="1" max="1"/>
+    <col width="40" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="15" t="inlineStr">
+        <is>
+          <t>REGULATORY COMPLIANCE ANALYSIS - The Club at Millenia</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Research Date:</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2025-11-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Confidence Level:</t>
+        </is>
+      </c>
+      <c r="B4" s="16" t="inlineStr">
+        <is>
+          <t>HIGH</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="17" t="inlineStr">
+        <is>
+          <t>PROPERTY INFORMATION</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Location:</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Orlando, FL</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>State:</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>FL</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Units:</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="17" t="inlineStr">
+        <is>
+          <t>RECYCLING REQUIREMENTS</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Status:</t>
+        </is>
+      </c>
+      <c r="B12" s="18" t="inlineStr">
+        <is>
+          <t>MANDATORY (City ordinance - April 2019)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="17" t="inlineStr">
+        <is>
+          <t>ORLANDO, FL - MANDATORY RECYCLING</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="19" t="inlineStr">
+        <is>
+          <t>[!] COMPLIANCE REQUIRED</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>City ordinance (April 1, 2019) requires ALL properties with 4+ units to provide recycling</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Phase 3 implementation complete (April 1, 2023)</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="18" t="inlineStr">
+        <is>
+          <t>Required Actions:</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>1. Provide recycling containers for residents</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2. Arrange collection service with licensed provider</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>3. Submit verification records to city</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>4. Maintain ongoing compliance documentation</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="17" t="inlineStr">
+        <is>
+          <t>RECOMMENDED NEXT STEPS</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>1. Verify property has active recycling service in place</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2. Confirm recycling containers are accessible to residents</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>3. Check that verification records have been submitted to city</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>4. Maintain compliance documentation for audits</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="20" t="inlineStr">
+        <is>
+          <t>Generated by: WasteWise Regulatory Compliance Analysis</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="20" t="inlineStr">
+        <is>
+          <t>For detailed findings, see: None</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A14:D14"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>